--- a/data/trans_orig/Q23_tabaco_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q23_tabaco_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>24645</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15498</v>
+        <v>15473</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34911</v>
+        <v>35546</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06695177401791029</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04210168961378844</v>
+        <v>0.04203568973393426</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09484235936141701</v>
+        <v>0.0965655708791429</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -765,19 +765,19 @@
         <v>29575</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20831</v>
+        <v>20727</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39664</v>
+        <v>40134</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1653170303360157</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1164400038900164</v>
+        <v>0.1158580720827639</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2217137781272588</v>
+        <v>0.2243397157295566</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -786,19 +786,19 @@
         <v>54220</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42035</v>
+        <v>40016</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69827</v>
+        <v>69364</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09912251616679067</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07684675618368073</v>
+        <v>0.07315521145538213</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1276555393552995</v>
+        <v>0.1268096962726996</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>117908</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>100391</v>
+        <v>100020</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>137945</v>
+        <v>134325</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3203180023954302</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2727301611504441</v>
+        <v>0.2717217183913169</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3747498942943757</v>
+        <v>0.3649163808874634</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>63</v>
@@ -836,19 +836,19 @@
         <v>63171</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51321</v>
+        <v>51203</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>77054</v>
+        <v>76525</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3531165426001235</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2868745234346149</v>
+        <v>0.2862164370549631</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4307168870859726</v>
+        <v>0.4277607198715744</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>180</v>
@@ -857,19 +857,19 @@
         <v>181080</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>157916</v>
+        <v>160359</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>201524</v>
+        <v>203166</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3310448933656788</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2886981608367707</v>
+        <v>0.2931641468507553</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3684204633026331</v>
+        <v>0.371421822398134</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>79531</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>64424</v>
+        <v>64237</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>95811</v>
+        <v>96046</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2160592168982325</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1750183755371534</v>
+        <v>0.1745116431252498</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2602862139494472</v>
+        <v>0.2609243322062543</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>38</v>
@@ -907,19 +907,19 @@
         <v>38362</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28930</v>
+        <v>27885</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49813</v>
+        <v>49841</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2144349277304646</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.161713705330914</v>
+        <v>0.1558737209352239</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2784463596892514</v>
+        <v>0.2786014278864505</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>116</v>
@@ -928,19 +928,19 @@
         <v>117893</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>99670</v>
+        <v>99284</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>135372</v>
+        <v>138526</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2155279867673162</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1822146168714263</v>
+        <v>0.181508079204808</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.247483237944718</v>
+        <v>0.2532487110164428</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>146014</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>126407</v>
+        <v>128095</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>165043</v>
+        <v>166383</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.396671006688427</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3434068264456121</v>
+        <v>0.3479904648716813</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4483660079544298</v>
+        <v>0.4520064711871502</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -978,19 +978,19 @@
         <v>47789</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36053</v>
+        <v>36533</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>61117</v>
+        <v>59878</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2671314993333962</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2015316590946269</v>
+        <v>0.2042117405195446</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.341630892986064</v>
+        <v>0.3347091916242872</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>191</v>
@@ -999,19 +999,19 @@
         <v>193803</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>175846</v>
+        <v>170867</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>217760</v>
+        <v>215038</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3543046037002143</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3214766778260117</v>
+        <v>0.3123741812722838</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3981032394649526</v>
+        <v>0.3931262296564165</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>68912</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>53261</v>
+        <v>53342</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>87272</v>
+        <v>87446</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1340802755007015</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1036285609060534</v>
+        <v>0.1037856664659103</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1698010192966356</v>
+        <v>0.1701412594049543</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>59</v>
@@ -1124,19 +1124,19 @@
         <v>64347</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>50190</v>
+        <v>51362</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>78979</v>
+        <v>80964</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2307887718621865</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1800141984957029</v>
+        <v>0.1842173762815259</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.283268712239398</v>
+        <v>0.2903884984755085</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>119</v>
@@ -1145,19 +1145,19 @@
         <v>133259</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>110801</v>
+        <v>113178</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>155238</v>
+        <v>155404</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1680919039686188</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1397632340464866</v>
+        <v>0.1427608990476514</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1958153747200361</v>
+        <v>0.1960252184083273</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>168291</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>147028</v>
+        <v>148621</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>189693</v>
+        <v>191566</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3274372970830739</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.286066423825481</v>
+        <v>0.2891661719214167</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3690775700601301</v>
+        <v>0.3727216619679335</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>96</v>
@@ -1195,19 +1195,19 @@
         <v>103832</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>87603</v>
+        <v>87132</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>120797</v>
+        <v>122820</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3724058018718383</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3141994446154712</v>
+        <v>0.3125104962996768</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4332512108116181</v>
+        <v>0.4405083642990685</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>253</v>
@@ -1216,19 +1216,19 @@
         <v>272123</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>245731</v>
+        <v>246310</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>301959</v>
+        <v>300169</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3432523716129922</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3099623422351799</v>
+        <v>0.310692798944656</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3808878806794394</v>
+        <v>0.378630289366846</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>105266</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>87459</v>
+        <v>87456</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>124260</v>
+        <v>122417</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2048129166938914</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1701646990719904</v>
+        <v>0.170160697241604</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2417687716059115</v>
+        <v>0.2381827005959057</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>48</v>
@@ -1266,19 +1266,19 @@
         <v>48759</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>37416</v>
+        <v>36616</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>61256</v>
+        <v>62126</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.174880812040682</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1341980567283125</v>
+        <v>0.1313269848625793</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2197019596469566</v>
+        <v>0.2228225427142998</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>150</v>
@@ -1287,19 +1287,19 @@
         <v>154025</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>130998</v>
+        <v>133467</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>178017</v>
+        <v>176734</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1942860275266515</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1652389644904835</v>
+        <v>0.1683539977368001</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2245492225895812</v>
+        <v>0.2229307618626216</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>171494</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>150556</v>
+        <v>150578</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>194961</v>
+        <v>194157</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3336695107223333</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2929313190981739</v>
+        <v>0.2929730375122116</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3793283940261686</v>
+        <v>0.3777641123308486</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>60</v>
@@ -1337,19 +1337,19 @@
         <v>61876</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48547</v>
+        <v>47728</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>77019</v>
+        <v>76756</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2219246142252932</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1741187511265078</v>
+        <v>0.1711805942929659</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2762375285421497</v>
+        <v>0.2752956612407988</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>222</v>
@@ -1358,19 +1358,19 @@
         <v>233370</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>206117</v>
+        <v>207922</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>257622</v>
+        <v>259507</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2943696968917375</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2599930551417655</v>
+        <v>0.2622708617677762</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3249609629039916</v>
+        <v>0.3273395386230875</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>35114</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24508</v>
+        <v>24836</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48254</v>
+        <v>46237</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1015367816470772</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07086848182548795</v>
+        <v>0.07181630144613586</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1395325837073927</v>
+        <v>0.1336984312165327</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -1483,19 +1483,19 @@
         <v>47848</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37794</v>
+        <v>36531</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60291</v>
+        <v>60607</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2477703718138888</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1957036465433232</v>
+        <v>0.1891639453647428</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3122016542616285</v>
+        <v>0.3138395089654921</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>81</v>
@@ -1504,19 +1504,19 @@
         <v>82963</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>66253</v>
+        <v>67094</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>100243</v>
+        <v>100912</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1539354952474757</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1229314115565315</v>
+        <v>0.1244912469484506</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.185998564267309</v>
+        <v>0.1872405822611359</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>111513</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>94853</v>
+        <v>92901</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>129561</v>
+        <v>130058</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3224509751336151</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2742783674502149</v>
+        <v>0.2686331568410543</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3746376109876796</v>
+        <v>0.3760765183014227</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>67</v>
@@ -1554,19 +1554,19 @@
         <v>63910</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>52403</v>
+        <v>51564</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>76662</v>
+        <v>76591</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3309393340805258</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2713553338382062</v>
+        <v>0.267012394965905</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3969740393496468</v>
+        <v>0.3966085672054704</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>172</v>
@@ -1575,19 +1575,19 @@
         <v>175422</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>153707</v>
+        <v>155317</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>196851</v>
+        <v>196920</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.325492540952311</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2852011374235532</v>
+        <v>0.2881871341607826</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3652537538697062</v>
+        <v>0.3653813654645128</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>72938</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58724</v>
+        <v>57301</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>90503</v>
+        <v>87868</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2109086472996368</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1698079011619474</v>
+        <v>0.1656914782370365</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.261699853252838</v>
+        <v>0.2540788664446135</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -1625,19 +1625,19 @@
         <v>31045</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21907</v>
+        <v>21939</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40827</v>
+        <v>41909</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1607591641258505</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1134412438047554</v>
+        <v>0.1136077686237954</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2114098710591159</v>
+        <v>0.2170127625342211</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>102</v>
@@ -1646,19 +1646,19 @@
         <v>103983</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>86792</v>
+        <v>85486</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>122966</v>
+        <v>123713</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1929389838110109</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.161041496805806</v>
+        <v>0.158616920758322</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2281601583251928</v>
+        <v>0.2295468522187071</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>126263</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>108451</v>
+        <v>108853</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>144640</v>
+        <v>144586</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3651035959196709</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3135985240346013</v>
+        <v>0.3147610132921146</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4182404700717223</v>
+        <v>0.4180859076002295</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>52</v>
@@ -1696,19 +1696,19 @@
         <v>50313</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>39056</v>
+        <v>38052</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>63760</v>
+        <v>61994</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.260531129979735</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2022412009801034</v>
+        <v>0.1970411874734483</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3301619940136107</v>
+        <v>0.321017574821634</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>170</v>
@@ -1717,19 +1717,19 @@
         <v>176576</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>154004</v>
+        <v>155210</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>198533</v>
+        <v>199130</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3276329799892024</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2857522483284768</v>
+        <v>0.2879884115717611</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3683733614749488</v>
+        <v>0.3694811009643093</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>57157</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45047</v>
+        <v>44199</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>72800</v>
+        <v>72986</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1174080495079206</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09253190701410817</v>
+        <v>0.09079057377724647</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.149540649955906</v>
+        <v>0.1499216835339831</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>69</v>
@@ -1842,19 +1842,19 @@
         <v>72744</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57716</v>
+        <v>58499</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>90624</v>
+        <v>87527</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2102689363572447</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1668314073777375</v>
+        <v>0.1690928860747998</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.261951990993374</v>
+        <v>0.252999953427214</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>128</v>
@@ -1863,19 +1863,19 @@
         <v>129901</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>110670</v>
+        <v>109312</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>153387</v>
+        <v>150777</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1559844319001277</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1328925871744841</v>
+        <v>0.1312612694133828</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1841865847264752</v>
+        <v>0.1810520588442568</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>151040</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>130602</v>
+        <v>132350</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>171621</v>
+        <v>169862</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.310253917461709</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2682721086634686</v>
+        <v>0.2718624554402324</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3525294545146737</v>
+        <v>0.3489182684196434</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>105</v>
@@ -1913,19 +1913,19 @@
         <v>109964</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>92851</v>
+        <v>92914</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>127650</v>
+        <v>125876</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3178567086869408</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2683909853216738</v>
+        <v>0.2685711391383852</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3689789526218414</v>
+        <v>0.363850079763203</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>260</v>
@@ -1934,19 +1934,19 @@
         <v>261003</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>232981</v>
+        <v>237460</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>288037</v>
+        <v>291955</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3134122782258976</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2797632078155871</v>
+        <v>0.285141849878545</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3458746060696664</v>
+        <v>0.3505785951297746</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>114140</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>96311</v>
+        <v>97678</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>134672</v>
+        <v>132802</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2344569715551499</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.19783418684665</v>
+        <v>0.2006429814063312</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2766323608612317</v>
+        <v>0.2727912281153438</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>57</v>
@@ -1984,19 +1984,19 @@
         <v>61206</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>48440</v>
+        <v>47724</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>76627</v>
+        <v>75815</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1769196907504839</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1400194076756102</v>
+        <v>0.1379495914511837</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2214932191632932</v>
+        <v>0.2191466651687813</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>178</v>
@@ -2005,19 +2005,19 @@
         <v>175346</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>152637</v>
+        <v>151313</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>198807</v>
+        <v>199163</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2105547644856645</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1832861119924509</v>
+        <v>0.1816957142142503</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2387264432478721</v>
+        <v>0.2391541289134821</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>164489</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>144011</v>
+        <v>145264</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>184739</v>
+        <v>185714</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3378810614752206</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2958157432259414</v>
+        <v>0.2983897331303127</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3794769199702214</v>
+        <v>0.3814794143556265</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>101</v>
@@ -2055,19 +2055,19 @@
         <v>102041</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>86434</v>
+        <v>87266</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>118186</v>
+        <v>119882</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2949546642053306</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2498418251146644</v>
+        <v>0.2522468430359175</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.341622784610616</v>
+        <v>0.3465257498982078</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>278</v>
@@ -2076,19 +2076,19 @@
         <v>266530</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>242630</v>
+        <v>239651</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>294419</v>
+        <v>295144</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3200485253883102</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.291348927814444</v>
+        <v>0.2877726238857963</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.353537629492354</v>
+        <v>0.3544080970586487</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>185829</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>162042</v>
+        <v>160764</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>215839</v>
+        <v>213159</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1083729138211889</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09450058519713003</v>
+        <v>0.09375554670938244</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1258742678515741</v>
+        <v>0.1243113197547956</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>205</v>
@@ -2201,19 +2201,19 @@
         <v>214514</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>188123</v>
+        <v>187820</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>245123</v>
+        <v>240620</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2152063918879373</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1887300655290423</v>
+        <v>0.1884269549216845</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2459141176178096</v>
+        <v>0.2413975314295562</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>382</v>
@@ -2222,19 +2222,19 @@
         <v>400342</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>364474</v>
+        <v>362124</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>444017</v>
+        <v>437310</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1476462560068033</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1344178634540487</v>
+        <v>0.1335514946960752</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1637533244398696</v>
+        <v>0.1612798329756153</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>548752</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>510556</v>
+        <v>509035</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>588334</v>
+        <v>586903</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3200248041631676</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2977493794591334</v>
+        <v>0.2968621154179758</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3431086146235068</v>
+        <v>0.342273717769046</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>331</v>
@@ -2272,19 +2272,19 @@
         <v>340877</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>313080</v>
+        <v>311685</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>371750</v>
+        <v>372262</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.34197772958145</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3140909786584818</v>
+        <v>0.312691689152729</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3729508708513219</v>
+        <v>0.3734637475619787</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>865</v>
@@ -2293,19 +2293,19 @@
         <v>889629</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>841548</v>
+        <v>841015</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>941356</v>
+        <v>936210</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3280949781154638</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3103628209839034</v>
+        <v>0.3101663994818348</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3471719082065945</v>
+        <v>0.3452740841513278</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>371876</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>337288</v>
+        <v>339829</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>405766</v>
+        <v>406443</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2168728167309753</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1967020243380053</v>
+        <v>0.1981838232715352</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2366372226718119</v>
+        <v>0.2370322299198903</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>175</v>
@@ -2343,19 +2343,19 @@
         <v>179372</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>155009</v>
+        <v>155906</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>204114</v>
+        <v>205266</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.179951497488199</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1555092329954219</v>
+        <v>0.1564092944265217</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2047735244855483</v>
+        <v>0.2059286940750304</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>546</v>
@@ -2364,19 +2364,19 @@
         <v>551248</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>513017</v>
+        <v>511387</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>596230</v>
+        <v>594394</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2033000712694834</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.189200486080538</v>
+        <v>0.188599504472441</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2198895959601912</v>
+        <v>0.2192123043372094</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>608261</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>568445</v>
+        <v>571303</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>647368</v>
+        <v>650273</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3547294652846681</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3315093644701953</v>
+        <v>0.3331761470086834</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3775364533622764</v>
+        <v>0.3792304801441185</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>261</v>
@@ -2414,19 +2414,19 @@
         <v>262018</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>235758</v>
+        <v>236129</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>291036</v>
+        <v>290343</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2628643810424137</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2365197931420601</v>
+        <v>0.2368917359900097</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2919754152445539</v>
+        <v>0.2912809067324123</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>861</v>
@@ -2435,19 +2435,19 @@
         <v>870279</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>821605</v>
+        <v>819530</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>920608</v>
+        <v>919690</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3209586946082496</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3030077557531237</v>
+        <v>0.3022428051126271</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3395202570995963</v>
+        <v>0.3391815946001931</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>64718</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49264</v>
+        <v>50158</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>80546</v>
+        <v>80173</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1472285475927473</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1120723933760758</v>
+        <v>0.114104433764185</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1832358171344075</v>
+        <v>0.1823873612547905</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -2800,19 +2800,19 @@
         <v>48055</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37844</v>
+        <v>36666</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62328</v>
+        <v>62402</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2174652453139872</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1712596223246218</v>
+        <v>0.1659267319950421</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2820566601842596</v>
+        <v>0.2823940746747403</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>106</v>
@@ -2821,19 +2821,19 @@
         <v>112773</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>92405</v>
+        <v>93262</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>133423</v>
+        <v>133600</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1707249830655777</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1398906362453196</v>
+        <v>0.141187484473178</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2019875274329989</v>
+        <v>0.2022561268289648</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>120796</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>101986</v>
+        <v>103790</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>141124</v>
+        <v>139882</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2748017791803572</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2320098074170367</v>
+        <v>0.23611412945878</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3210451737346357</v>
+        <v>0.318220282682426</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>71</v>
@@ -2871,19 +2871,19 @@
         <v>78130</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>63674</v>
+        <v>63902</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>93311</v>
+        <v>93543</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3535696388720539</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2881497502299142</v>
+        <v>0.2891792248266755</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4222691580961959</v>
+        <v>0.4233166874337111</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>187</v>
@@ -2892,19 +2892,19 @@
         <v>198926</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>176224</v>
+        <v>176881</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>223898</v>
+        <v>224467</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3011521628490819</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2667828988069116</v>
+        <v>0.2677773511026632</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3389561647123841</v>
+        <v>0.33981751718174</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>81100</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>65246</v>
+        <v>65994</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>100118</v>
+        <v>100297</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.184496754184172</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1484285983240311</v>
+        <v>0.1501314070840516</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2277607816056161</v>
+        <v>0.2281666749171675</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>45</v>
@@ -2942,19 +2942,19 @@
         <v>47207</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>36492</v>
+        <v>35185</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>61544</v>
+        <v>60305</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2136292472641592</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1651422285450407</v>
+        <v>0.1592236946667646</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2785080766477047</v>
+        <v>0.27290398979329</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>124</v>
@@ -2963,19 +2963,19 @@
         <v>128307</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>108818</v>
+        <v>110235</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>149870</v>
+        <v>148654</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1942425105483639</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1647379135030934</v>
+        <v>0.1668830060103707</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2268859022041226</v>
+        <v>0.2250458721045012</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>172961</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>152602</v>
+        <v>151477</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>194722</v>
+        <v>193400</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3934729190427235</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3471572319891733</v>
+        <v>0.3445977581167078</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4429766221161862</v>
+        <v>0.4399685048026447</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -3013,19 +3013,19 @@
         <v>47584</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35424</v>
+        <v>35419</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60687</v>
+        <v>61315</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2153358685497996</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1603064950189448</v>
+        <v>0.1602843851429084</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2746301926371957</v>
+        <v>0.2774716195974257</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>206</v>
@@ -3034,19 +3034,19 @@
         <v>220545</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>197142</v>
+        <v>196229</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>248409</v>
+        <v>246617</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3338803435369766</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2984504767124274</v>
+        <v>0.2970683676156981</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3760628997263109</v>
+        <v>0.3733511363197711</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>108014</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>88159</v>
+        <v>88677</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>131012</v>
+        <v>129276</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1742181223529835</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1421942120898625</v>
+        <v>0.1430293391091239</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2113116797047037</v>
+        <v>0.2085118617936697</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>81</v>
@@ -3159,19 +3159,19 @@
         <v>92125</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>74389</v>
+        <v>76849</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>110312</v>
+        <v>111697</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2435747676659358</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1966819451015966</v>
+        <v>0.203185881240536</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2916622601843057</v>
+        <v>0.2953226461069878</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>175</v>
@@ -3180,19 +3180,19 @@
         <v>200138</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>175604</v>
+        <v>173625</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>227684</v>
+        <v>227174</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2004971480123169</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1759188767905151</v>
+        <v>0.1739363095767269</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2280919168785335</v>
+        <v>0.227580856673295</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>166643</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>144238</v>
+        <v>143609</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191963</v>
+        <v>187351</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2687829536505392</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2326453229220899</v>
+        <v>0.2316298923960742</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3096213472761849</v>
+        <v>0.3021836641922349</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>115</v>
@@ -3230,19 +3230,19 @@
         <v>125545</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>108215</v>
+        <v>107748</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>146640</v>
+        <v>144800</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3319366328599139</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2861168681024125</v>
+        <v>0.28488268775201</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3877106076983658</v>
+        <v>0.3828463347860257</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>271</v>
@@ -3251,19 +3251,19 @@
         <v>292188</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>263019</v>
+        <v>263610</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>319233</v>
+        <v>322507</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2927116939887708</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2634908027135992</v>
+        <v>0.2640822242573835</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3198050811312116</v>
+        <v>0.3230848802916516</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>134014</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>113938</v>
+        <v>112972</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>158674</v>
+        <v>155784</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2161543177711334</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1837737186911741</v>
+        <v>0.182215015882507</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2559298263428938</v>
+        <v>0.2512673989969366</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>50</v>
@@ -3301,19 +3301,19 @@
         <v>53895</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>41823</v>
+        <v>40859</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>70117</v>
+        <v>69103</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1424972607294797</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.110578681691995</v>
+        <v>0.1080292495241863</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.185386731135074</v>
+        <v>0.1827066245419288</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>172</v>
@@ -3322,19 +3322,19 @@
         <v>187909</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>165194</v>
+        <v>163659</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>213705</v>
+        <v>215263</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1882458789581748</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1654904790999348</v>
+        <v>0.16395246809664</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2140881689139571</v>
+        <v>0.2156490869393516</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>211321</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>186717</v>
+        <v>186371</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>236619</v>
+        <v>236576</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3408446062253439</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3011608161657532</v>
+        <v>0.3006028459675272</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3816480580409383</v>
+        <v>0.3815792362852747</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>99</v>
@@ -3372,19 +3372,19 @@
         <v>106654</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>89575</v>
+        <v>87550</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>126570</v>
+        <v>124054</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2819913387446706</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2368328159384022</v>
+        <v>0.2314797213238663</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3346467954572038</v>
+        <v>0.3279954463746911</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>295</v>
@@ -3393,19 +3393,19 @@
         <v>317975</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>287963</v>
+        <v>288748</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>347312</v>
+        <v>350005</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3185452790407375</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2884790444559671</v>
+        <v>0.2892655909757978</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3479347448769866</v>
+        <v>0.3506320713923575</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>80700</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>64167</v>
+        <v>62748</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>102044</v>
+        <v>99628</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1785689853226377</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1419858281432131</v>
+        <v>0.1388453977257664</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2257977404052873</v>
+        <v>0.2204501191546542</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>66</v>
@@ -3518,19 +3518,19 @@
         <v>74371</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>58729</v>
+        <v>58941</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>92937</v>
+        <v>90428</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2313760070863283</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1827115722910062</v>
+        <v>0.1833725587741427</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2891388217407703</v>
+        <v>0.2813329579170045</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>130</v>
@@ -3539,19 +3539,19 @@
         <v>155071</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>132272</v>
+        <v>130853</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>181879</v>
+        <v>179062</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2005170533498704</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1710357493533859</v>
+        <v>0.1692014507522242</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2351809062035729</v>
+        <v>0.2315388125799433</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>141868</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>121494</v>
+        <v>121562</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>162392</v>
+        <v>163461</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3139175573208933</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2688338237252451</v>
+        <v>0.2689855397460498</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3593305493732146</v>
+        <v>0.3616965661033735</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>82</v>
@@ -3589,19 +3589,19 @@
         <v>88019</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>71481</v>
+        <v>72084</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>105032</v>
+        <v>105820</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2738360972593315</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2223860297530274</v>
+        <v>0.2242617474251141</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3267656718713797</v>
+        <v>0.3292171642084803</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>212</v>
@@ -3610,19 +3610,19 @@
         <v>229887</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>201153</v>
+        <v>205314</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>255503</v>
+        <v>257309</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.297258586928686</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2601046171239872</v>
+        <v>0.2654839845380509</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3303819864192019</v>
+        <v>0.3327174595290352</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>67448</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52230</v>
+        <v>52055</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>82923</v>
+        <v>84503</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1492446400339046</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1155711710061882</v>
+        <v>0.1151839013803359</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1834874938929859</v>
+        <v>0.1869825991566528</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -3660,19 +3660,19 @@
         <v>67343</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>52573</v>
+        <v>50855</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>82912</v>
+        <v>83755</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2095112402909481</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1635592988677599</v>
+        <v>0.1582152551404901</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2579482606267275</v>
+        <v>0.2605701047477081</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>121</v>
@@ -3681,19 +3681,19 @@
         <v>134791</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>112953</v>
+        <v>111491</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>157134</v>
+        <v>157741</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1742931165060454</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1460553073299033</v>
+        <v>0.1441652872563509</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2031844472714429</v>
+        <v>0.2039688709285047</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>161912</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>140654</v>
+        <v>142162</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>184139</v>
+        <v>184726</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3582688173225644</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3112306803340236</v>
+        <v>0.3145683969114337</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4074522627794634</v>
+        <v>0.4087518542831721</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>82</v>
@@ -3731,19 +3731,19 @@
         <v>91696</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>76190</v>
+        <v>75596</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>108120</v>
+        <v>110355</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2852766553633921</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.237035068155499</v>
+        <v>0.2351884208662236</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3363752310186601</v>
+        <v>0.3433272276157495</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>231</v>
@@ -3752,19 +3752,19 @@
         <v>253608</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>224806</v>
+        <v>227619</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>279603</v>
+        <v>282388</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3279312432153982</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2906886958752345</v>
+        <v>0.2943265224380856</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3615445404350288</v>
+        <v>0.365145896886814</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>82561</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>66177</v>
+        <v>67332</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>101476</v>
+        <v>100425</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1574621796899599</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1262146529990463</v>
+        <v>0.1284169812550531</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1935378810760324</v>
+        <v>0.1915332751119795</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>84</v>
@@ -3877,19 +3877,19 @@
         <v>89847</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>74191</v>
+        <v>74719</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>109308</v>
+        <v>110012</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2269427337268239</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1873959637414254</v>
+        <v>0.1887311848580079</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2760991332523627</v>
+        <v>0.2778769917674405</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>159</v>
@@ -3898,19 +3898,19 @@
         <v>172408</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>150375</v>
+        <v>150771</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>200691</v>
+        <v>200364</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1873543841823554</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.163411416610061</v>
+        <v>0.1638407778437549</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2180886912051698</v>
+        <v>0.2177335758389742</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>167031</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>147146</v>
+        <v>147322</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>189523</v>
+        <v>189166</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3185654974022892</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2806392020399758</v>
+        <v>0.2809762407811545</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3614627792797855</v>
+        <v>0.3607816809481109</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>119</v>
@@ -3948,19 +3948,19 @@
         <v>124083</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>105456</v>
+        <v>106896</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>143273</v>
+        <v>144893</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.313416730824174</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2663677471066375</v>
+        <v>0.2700046326038001</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.361888049595932</v>
+        <v>0.3659820548577651</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>282</v>
@@ -3969,19 +3969,19 @@
         <v>291114</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>264326</v>
+        <v>263779</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>320205</v>
+        <v>324361</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3163503742563947</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.287240653835057</v>
+        <v>0.2866454603158965</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3479636927305444</v>
+        <v>0.3524797936771451</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>90785</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>72798</v>
+        <v>74132</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>108198</v>
+        <v>110445</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1731478815710181</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.138841244618673</v>
+        <v>0.141386049653942</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2063567208552587</v>
+        <v>0.2106426935567945</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>62</v>
@@ -4019,19 +4019,19 @@
         <v>64249</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>50073</v>
+        <v>50982</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>78760</v>
+        <v>81500</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1622846502429515</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1264785070551572</v>
+        <v>0.1287733382411801</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1989380030865916</v>
+        <v>0.2058576294432805</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>150</v>
@@ -4040,19 +4040,19 @@
         <v>155034</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>134726</v>
+        <v>134396</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>180723</v>
+        <v>180853</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.168474258327679</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1464056465577922</v>
+        <v>0.1460462486960042</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1963892814486661</v>
+        <v>0.1965310746126788</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>183945</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>162749</v>
+        <v>160038</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>207803</v>
+        <v>205517</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3508244413367328</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3103977855009904</v>
+        <v>0.3052276103448652</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3963258189266452</v>
+        <v>0.3919660880878837</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>107</v>
@@ -4090,19 +4090,19 @@
         <v>117724</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>97047</v>
+        <v>98198</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>136862</v>
+        <v>137338</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2973558852060506</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2451272886126632</v>
+        <v>0.2480353229352866</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3456969935346174</v>
+        <v>0.3468984972549442</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>285</v>
@@ -4111,19 +4111,19 @@
         <v>301669</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>273050</v>
+        <v>273924</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>330014</v>
+        <v>329256</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3278209832335708</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2967203968397818</v>
+        <v>0.2976707435608213</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3586228738248303</v>
+        <v>0.357799557277425</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>335993</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>299677</v>
+        <v>298249</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>373420</v>
+        <v>371970</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1650408734302843</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1472021010143859</v>
+        <v>0.1465009193470055</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1834252018584849</v>
+        <v>0.1827127066491294</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>276</v>
@@ -4236,19 +4236,19 @@
         <v>304397</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>271170</v>
+        <v>269916</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>336472</v>
+        <v>336504</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2312124832615971</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2059739053523476</v>
+        <v>0.2050217704630911</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2555754634838352</v>
+        <v>0.2555996087788476</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>570</v>
@@ -4257,19 +4257,19 @@
         <v>640390</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>590775</v>
+        <v>593541</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>692247</v>
+        <v>689152</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1910276654103391</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1762273383936382</v>
+        <v>0.1770525891365014</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2064962899747552</v>
+        <v>0.2055730431687565</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>596339</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>555154</v>
+        <v>554775</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>639653</v>
+        <v>638114</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2929233353163833</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2726931793654521</v>
+        <v>0.2725073800884099</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3141992868257963</v>
+        <v>0.3134436888576243</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>387</v>
@@ -4307,19 +4307,19 @@
         <v>415776</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>382732</v>
+        <v>382057</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>453929</v>
+        <v>453391</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3158132389832572</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2907137874611831</v>
+        <v>0.290201076214618</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3447928863231288</v>
+        <v>0.3443842322487294</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>952</v>
@@ -4328,19 +4328,19 @@
         <v>1012115</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>957956</v>
+        <v>959910</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1069379</v>
+        <v>1068127</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3019126158635987</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2857570193322599</v>
+        <v>0.2863398559179088</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.318994523443218</v>
+        <v>0.3186208671292923</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>373347</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>340733</v>
+        <v>338026</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>412314</v>
+        <v>415100</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1833893633832868</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1673692100982497</v>
+        <v>0.1660396221808257</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2025299965027829</v>
+        <v>0.2038981842625162</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>215</v>
@@ -4378,19 +4378,19 @@
         <v>232694</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>204715</v>
+        <v>206817</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>263609</v>
+        <v>264971</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1767483925639737</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1554962108847224</v>
+        <v>0.1570927464617372</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2002310676881306</v>
+        <v>0.2012655326479796</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>567</v>
@@ -4399,19 +4399,19 @@
         <v>606041</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>562140</v>
+        <v>565420</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>655841</v>
+        <v>657160</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1807813336305417</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.167685758941194</v>
+        <v>0.1686641234105175</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1956365503811829</v>
+        <v>0.196029988541261</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>730139</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>688951</v>
+        <v>688131</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>780981</v>
+        <v>776871</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3586464278700456</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3384149496835183</v>
+        <v>0.3380118576919929</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3836200867741154</v>
+        <v>0.3816015734478762</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>331</v>
@@ -4449,19 +4449,19 @@
         <v>363659</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>331788</v>
+        <v>330483</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>397581</v>
+        <v>398087</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2762258851911721</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2520175881748818</v>
+        <v>0.2510263389004352</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3019926408243084</v>
+        <v>0.302376772754287</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1017</v>
@@ -4470,19 +4470,19 @@
         <v>1093797</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1042782</v>
+        <v>1036879</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1156548</v>
+        <v>1152042</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3262783850955205</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3110605712213123</v>
+        <v>0.3092996203072529</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3449969312969512</v>
+        <v>0.3436525543666667</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>64346</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49501</v>
+        <v>49288</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>79033</v>
+        <v>79690</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1706456436067887</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1312781164308147</v>
+        <v>0.1307134308016324</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.209595761531183</v>
+        <v>0.2113388288978895</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>55</v>
@@ -4835,19 +4835,19 @@
         <v>59317</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47064</v>
+        <v>45529</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>74103</v>
+        <v>72771</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2641942616641574</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2096211394320092</v>
+        <v>0.2027841119372978</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3300500902537323</v>
+        <v>0.3241187889212243</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>118</v>
@@ -4856,19 +4856,19 @@
         <v>123663</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>104948</v>
+        <v>102663</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>145758</v>
+        <v>142947</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2055589641496434</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1744497072023912</v>
+        <v>0.170652885904192</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2422869636525112</v>
+        <v>0.2376149180602534</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>97157</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>80228</v>
+        <v>80222</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>114281</v>
+        <v>116315</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2576616559119785</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2127654330750477</v>
+        <v>0.2127501641455843</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3030755702468518</v>
+        <v>0.3084701771249513</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>78</v>
@@ -4906,19 +4906,19 @@
         <v>76645</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>62996</v>
+        <v>63072</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>90572</v>
+        <v>91746</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3413690308835704</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2805792974424044</v>
+        <v>0.2809185438758564</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4033995571877628</v>
+        <v>0.4086299265992593</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>169</v>
@@ -4927,19 +4927,19 @@
         <v>173801</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>152631</v>
+        <v>153067</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>197606</v>
+        <v>197895</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2889021218309075</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2537112387279204</v>
+        <v>0.2544359822886921</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3284721051906678</v>
+        <v>0.3289529984850051</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>57069</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44810</v>
+        <v>43829</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>71707</v>
+        <v>72240</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1513471282658554</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1188369706030625</v>
+        <v>0.1162350325634269</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1901677525961451</v>
+        <v>0.1915808279346057</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -4977,19 +4977,19 @@
         <v>30800</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22397</v>
+        <v>21735</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>41725</v>
+        <v>41140</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1371788737718582</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0997524149116856</v>
+        <v>0.0968075809092573</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.185840461751101</v>
+        <v>0.1832337976939814</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>90</v>
@@ -4998,19 +4998,19 @@
         <v>87868</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>72696</v>
+        <v>71696</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>105386</v>
+        <v>105564</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1460593878272065</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1208387929069428</v>
+        <v>0.1191768213485014</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1751783449193995</v>
+        <v>0.1754737822479514</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>158501</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>140761</v>
+        <v>139318</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>178763</v>
+        <v>178074</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4203455722153774</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3732999878128699</v>
+        <v>0.3694741526919947</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4740810937140174</v>
+        <v>0.4722551021544802</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -5048,19 +5048,19 @@
         <v>57760</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44956</v>
+        <v>44733</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71969</v>
+        <v>70115</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.257257833680414</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2002296679352391</v>
+        <v>0.1992360834759867</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3205425338202275</v>
+        <v>0.3122892219587828</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>207</v>
@@ -5069,19 +5069,19 @@
         <v>216260</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>194124</v>
+        <v>192066</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>239639</v>
+        <v>242627</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3594795261922425</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.322683878142714</v>
+        <v>0.3192621810167314</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3983422249082114</v>
+        <v>0.4033085704995507</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>96470</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>79940</v>
+        <v>78928</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>115548</v>
+        <v>116563</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1848619396038459</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1531869825942606</v>
+        <v>0.1512469682324468</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2214211662137776</v>
+        <v>0.223366604446806</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>75</v>
@@ -5194,19 +5194,19 @@
         <v>78004</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>63886</v>
+        <v>64022</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>93642</v>
+        <v>96387</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2177247854458463</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1783184156141453</v>
+        <v>0.1786972755323942</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2613737997814705</v>
+        <v>0.2690347024704907</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>161</v>
@@ -5215,19 +5215,19 @@
         <v>174474</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>150772</v>
+        <v>150226</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>199987</v>
+        <v>199754</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1982394057404833</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1713088729099069</v>
+        <v>0.1706889117562786</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2272282705911667</v>
+        <v>0.2269635888869675</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>117897</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>97371</v>
+        <v>99725</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>137000</v>
+        <v>139521</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2259226039443523</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1865891840152049</v>
+        <v>0.1910996630174651</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2625287790029749</v>
+        <v>0.2673585345170694</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -5265,19 +5265,19 @@
         <v>105366</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>89117</v>
+        <v>90109</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>123566</v>
+        <v>123795</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2940981888687019</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2487425331125442</v>
+        <v>0.2515111857779891</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3448979038517239</v>
+        <v>0.3455370135341097</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>205</v>
@@ -5286,19 +5286,19 @@
         <v>223263</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>198598</v>
+        <v>196070</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>253208</v>
+        <v>251855</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2536748133256024</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2256500659459413</v>
+        <v>0.2227779566398766</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2876987012935407</v>
+        <v>0.2861612817575274</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>107479</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>89969</v>
+        <v>88018</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>127318</v>
+        <v>128193</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.205958164541295</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1724043890175157</v>
+        <v>0.1686650281326033</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.243974983798521</v>
+        <v>0.2456516845460373</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>69</v>
@@ -5336,19 +5336,19 @@
         <v>70832</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>56050</v>
+        <v>57005</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>86526</v>
+        <v>87220</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1977049128171023</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1564473308950157</v>
+        <v>0.1591120062043716</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2415110401476885</v>
+        <v>0.2434489187434136</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>171</v>
@@ -5357,19 +5357,19 @@
         <v>178310</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>157319</v>
+        <v>152270</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>203693</v>
+        <v>200858</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2025985165062966</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.178748483784554</v>
+        <v>0.1730115437463161</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2314390444732232</v>
+        <v>0.2282174040155777</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>200002</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>176383</v>
+        <v>178088</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>223166</v>
+        <v>223704</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3832572919105068</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3379960644557746</v>
+        <v>0.3412647505520734</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4276449630396898</v>
+        <v>0.4286766180270912</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>103</v>
@@ -5407,19 +5407,19 @@
         <v>104067</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>88354</v>
+        <v>88146</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>121561</v>
+        <v>123147</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2904721128683496</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2466122684548721</v>
+        <v>0.2460331669372814</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3393011043177547</v>
+        <v>0.3437268450669803</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>287</v>
@@ -5428,19 +5428,19 @@
         <v>304069</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>274770</v>
+        <v>274343</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>333074</v>
+        <v>332515</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3454872644276177</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3121979179808504</v>
+        <v>0.3117120747185457</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3784427572439978</v>
+        <v>0.3778081167092875</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>66521</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50932</v>
+        <v>52881</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>84521</v>
+        <v>83953</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1553153463941389</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.118917295081134</v>
+        <v>0.123469042157661</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1973430359581614</v>
+        <v>0.1960157020316598</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>61</v>
@@ -5553,19 +5553,19 @@
         <v>65187</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51719</v>
+        <v>50970</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>80316</v>
+        <v>79539</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2219783278996195</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1761154125874737</v>
+        <v>0.1735648660123419</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2734967786073128</v>
+        <v>0.2708527694604786</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>122</v>
@@ -5574,19 +5574,19 @@
         <v>131708</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>112043</v>
+        <v>113017</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>155383</v>
+        <v>155058</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1824310380354396</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1551924051449038</v>
+        <v>0.1565422454351579</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2152240426518262</v>
+        <v>0.2147740031786547</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>115673</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>96876</v>
+        <v>96993</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>138461</v>
+        <v>135874</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2700771435954654</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2261878545437085</v>
+        <v>0.226461134285493</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3232822939559572</v>
+        <v>0.3172420179487241</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>91</v>
@@ -5624,19 +5624,19 @@
         <v>95646</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>81369</v>
+        <v>80811</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>111303</v>
+        <v>111076</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3256986346769201</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.277083171369611</v>
+        <v>0.275183483667648</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.379015147919035</v>
+        <v>0.3782444197471923</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>195</v>
@@ -5645,19 +5645,19 @@
         <v>211319</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>186563</v>
+        <v>188598</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>237243</v>
+        <v>236888</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2927016222301344</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2584115843910779</v>
+        <v>0.2612314375531192</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3286104394140267</v>
+        <v>0.3281178280601836</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>112169</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>94796</v>
+        <v>94468</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>131933</v>
+        <v>132819</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.261894694541046</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2213329572275706</v>
+        <v>0.2205668826301679</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3080415417107619</v>
+        <v>0.3101089920605782</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>66</v>
@@ -5695,19 +5695,19 @@
         <v>66330</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>53499</v>
+        <v>52136</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81571</v>
+        <v>79579</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2258694492269007</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1821778236241402</v>
+        <v>0.1775380158510665</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2777702542721314</v>
+        <v>0.2709887397308461</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>167</v>
@@ -5716,19 +5716,19 @@
         <v>178498</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>154553</v>
+        <v>152945</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>202164</v>
+        <v>202089</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2472411428819402</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.214075114022696</v>
+        <v>0.2118466839104624</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.280021422013205</v>
+        <v>0.2799172509962695</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>133934</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>114285</v>
+        <v>113799</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>154422</v>
+        <v>153928</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3127128154693497</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2668363135482779</v>
+        <v>0.2657009949045491</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3605490730260815</v>
+        <v>0.3593943548581744</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>66</v>
@@ -5766,19 +5766,19 @@
         <v>66501</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>54213</v>
+        <v>52789</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>82668</v>
+        <v>81543</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2264535881965597</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1846109508559072</v>
+        <v>0.1797618493574969</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.281507699342938</v>
+        <v>0.2776748517186091</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>189</v>
@@ -5787,19 +5787,19 @@
         <v>200435</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>175377</v>
+        <v>177857</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>223010</v>
+        <v>224593</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2776261968524859</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2429182074349102</v>
+        <v>0.246353110189691</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3088963310678107</v>
+        <v>0.3110889951249837</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>62436</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>48920</v>
+        <v>49817</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>78033</v>
+        <v>78371</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1413778775619846</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1107736724641489</v>
+        <v>0.11280501099671</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1766959310624502</v>
+        <v>0.1774608291786889</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>86</v>
@@ -5912,19 +5912,19 @@
         <v>96335</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>78236</v>
+        <v>79748</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>113382</v>
+        <v>114279</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2617444349327038</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.212568912920975</v>
+        <v>0.2166777601745935</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3080618925181645</v>
+        <v>0.3105006604264504</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>148</v>
@@ -5933,19 +5933,19 @@
         <v>158770</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>136774</v>
+        <v>138017</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>183444</v>
+        <v>184989</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1960923324441369</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1689255229376336</v>
+        <v>0.1704600525635743</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2265666380344311</v>
+        <v>0.228474066354212</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>140841</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>122826</v>
+        <v>122222</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>163065</v>
+        <v>163450</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3189170795710185</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2781251321224221</v>
+        <v>0.2767571079354929</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3692394562615509</v>
+        <v>0.3701120551177942</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>101</v>
@@ -5983,19 +5983,19 @@
         <v>104838</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>88134</v>
+        <v>88604</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>122325</v>
+        <v>121377</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2848484140541515</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2394625179203164</v>
+        <v>0.2407414874591786</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3323604278585389</v>
+        <v>0.3297852807325929</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>240</v>
@@ -6004,19 +6004,19 @@
         <v>245679</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>220251</v>
+        <v>219503</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>273378</v>
+        <v>273410</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3034306479322316</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.272025831719347</v>
+        <v>0.271101830149139</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3376414227148605</v>
+        <v>0.337680216606089</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>90641</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>73768</v>
+        <v>73864</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>106775</v>
+        <v>107620</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.205245183598649</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1670376203965712</v>
+        <v>0.1672561011780673</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2417782598692003</v>
+        <v>0.2436928749776063</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>67</v>
@@ -6054,19 +6054,19 @@
         <v>71886</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>56756</v>
+        <v>57963</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>87733</v>
+        <v>88602</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1953161873191386</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.154208907712272</v>
+        <v>0.1574878492664009</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.238374273323766</v>
+        <v>0.2407360701875405</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>157</v>
@@ -6075,19 +6075,19 @@
         <v>162527</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>140834</v>
+        <v>141153</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>185971</v>
+        <v>187119</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2007318068698693</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1739403421457329</v>
+        <v>0.1743335617720826</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.229687188482062</v>
+        <v>0.2311052674770684</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>147705</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>130045</v>
+        <v>127967</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>167568</v>
+        <v>168750</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3344598592683479</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2944704102465867</v>
+        <v>0.2897662384832207</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3794359551862024</v>
+        <v>0.382113584235448</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>89</v>
@@ -6125,19 +6125,19 @@
         <v>94990</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>77784</v>
+        <v>79183</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>113105</v>
+        <v>113171</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2580909636940062</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2113423345700313</v>
+        <v>0.2151427036877836</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.307310372454227</v>
+        <v>0.3074908663632113</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>238</v>
@@ -6146,19 +6146,19 @@
         <v>242695</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>217684</v>
+        <v>219126</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>268094</v>
+        <v>270856</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2997452127537621</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2688551861246549</v>
+        <v>0.2706363838303198</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3311148158837892</v>
+        <v>0.3345254361201551</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>289772</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>257628</v>
+        <v>260157</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>322247</v>
+        <v>327136</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1638205578610855</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1456480077968308</v>
+        <v>0.1470777085739617</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.182179718206831</v>
+        <v>0.1849438373485975</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>277</v>
@@ -6271,19 +6271,19 @@
         <v>298842</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>270820</v>
+        <v>272032</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>334960</v>
+        <v>333515</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2401304193536786</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.217613664612099</v>
+        <v>0.2185873705689096</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2691519310252332</v>
+        <v>0.2679914459675781</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>549</v>
@@ -6292,19 +6292,19 @@
         <v>588615</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>543599</v>
+        <v>546354</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>636335</v>
+        <v>637094</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1953363045828163</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1803974653207022</v>
+        <v>0.1813118009086019</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2111728046705061</v>
+        <v>0.211424765056195</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>471568</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>432442</v>
+        <v>434335</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>507676</v>
+        <v>508587</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2665976495946349</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2444779272596559</v>
+        <v>0.2455479292517377</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2870108478215519</v>
+        <v>0.2875256419795032</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>368</v>
@@ -6342,19 +6342,19 @@
         <v>382494</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>352510</v>
+        <v>349148</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>412862</v>
+        <v>412669</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3073475113049496</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2832540639676193</v>
+        <v>0.2805525436876728</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3317494002545358</v>
+        <v>0.3315940708983744</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>809</v>
@@ -6363,19 +6363,19 @@
         <v>854062</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>804169</v>
+        <v>797172</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>902853</v>
+        <v>899531</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2834272217559275</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2668696920445936</v>
+        <v>0.2645478739691464</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2996187639935882</v>
+        <v>0.298516458333129</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>367357</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>335497</v>
+        <v>335615</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>403801</v>
+        <v>401341</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2076826135145499</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1896706889430151</v>
+        <v>0.1897372918887445</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2282859347013824</v>
+        <v>0.2268952609468156</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>235</v>
@@ -6413,19 +6413,19 @@
         <v>239846</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>215276</v>
+        <v>209600</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>270554</v>
+        <v>267734</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1927248910358137</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1729821986372866</v>
+        <v>0.1684209342483229</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2173993799103259</v>
+        <v>0.2151336843642087</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>585</v>
@@ -6434,19 +6434,19 @@
         <v>607203</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>561144</v>
+        <v>561861</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>649066</v>
+        <v>650575</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2015051184444069</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1862201569767501</v>
+        <v>0.1864580032137571</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2153977132908669</v>
+        <v>0.2158985358298783</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>640141</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>598469</v>
+        <v>595616</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>685387</v>
+        <v>677675</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3618991790297297</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3383398466271505</v>
+        <v>0.3367269282517348</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3874787181217099</v>
+        <v>0.3831185004547458</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>316</v>
@@ -6484,19 +6484,19 @@
         <v>323318</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>289582</v>
+        <v>291002</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>352772</v>
+        <v>352543</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.259797178305558</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2326891972265206</v>
+        <v>0.2338306594577582</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.28346476470259</v>
+        <v>0.2832809334534369</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>921</v>
@@ -6505,19 +6505,19 @@
         <v>963459</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>913039</v>
+        <v>908196</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1015051</v>
+        <v>1018153</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3197313552168493</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3029991456309706</v>
+        <v>0.301391858180751</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3368526354897558</v>
+        <v>0.337882030448799</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>37407</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27897</v>
+        <v>27669</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49555</v>
+        <v>48919</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1197310068471657</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08929152001772708</v>
+        <v>0.08856116333865642</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1586125403161974</v>
+        <v>0.1565777183342344</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -6870,19 +6870,19 @@
         <v>31646</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24114</v>
+        <v>24151</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40062</v>
+        <v>40988</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1759831943464918</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1340964369197821</v>
+        <v>0.1343043145239721</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2227873091189286</v>
+        <v>0.2279339472227344</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>97</v>
@@ -6891,19 +6891,19 @@
         <v>69053</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56331</v>
+        <v>56385</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84977</v>
+        <v>83733</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1402803933597338</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1144346536402561</v>
+        <v>0.1145453848423823</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1726302479353892</v>
+        <v>0.1701014077140831</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>64753</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>50383</v>
+        <v>50687</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>80957</v>
+        <v>80966</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2072576001822489</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.161261860274806</v>
+        <v>0.1622369271384399</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2591229449188788</v>
+        <v>0.2591507065322251</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>94</v>
@@ -6941,19 +6941,19 @@
         <v>61692</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50419</v>
+        <v>51803</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72710</v>
+        <v>73101</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.343069294398794</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2803832831575127</v>
+        <v>0.2880795529292705</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4043417527491374</v>
+        <v>0.4065136574231519</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>161</v>
@@ -6962,19 +6962,19 @@
         <v>126445</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>108755</v>
+        <v>106949</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>146408</v>
+        <v>145645</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2568707285146525</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2209334381887757</v>
+        <v>0.2172648688801872</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2974262792989313</v>
+        <v>0.2958745209763334</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>93727</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>76641</v>
+        <v>77824</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>113001</v>
+        <v>113123</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2999964866964937</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2453066007772209</v>
+        <v>0.2490947345161408</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3616854648485121</v>
+        <v>0.3620781871006569</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>78</v>
@@ -7012,19 +7012,19 @@
         <v>56162</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>44614</v>
+        <v>45795</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>66879</v>
+        <v>68222</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.312317517284308</v>
+        <v>0.3123175172843081</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2480972584308264</v>
+        <v>0.254666738468303</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3719176417705813</v>
+        <v>0.3793852878826994</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>174</v>
@@ -7033,19 +7033,19 @@
         <v>149889</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>131082</v>
+        <v>127982</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>172372</v>
+        <v>171311</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3044974604548067</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2662904679179077</v>
+        <v>0.2599925303216551</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3501703933778119</v>
+        <v>0.348016367543732</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>116540</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>99900</v>
+        <v>100383</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>134803</v>
+        <v>133774</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3730149062740917</v>
+        <v>0.3730149062740916</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3197521342433187</v>
+        <v>0.321298269767156</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4314693125372895</v>
+        <v>0.4281739379100563</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -7083,19 +7083,19 @@
         <v>30324</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21718</v>
+        <v>21689</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40530</v>
+        <v>40464</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1686299939704061</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.120771676661186</v>
+        <v>0.1206130574951907</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.225390508378989</v>
+        <v>0.2250237865232113</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>176</v>
@@ -7104,19 +7104,19 @@
         <v>146864</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>125256</v>
+        <v>126550</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>167149</v>
+        <v>165891</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2983514176708069</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2544552709035136</v>
+        <v>0.2570852223712497</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3395612840962209</v>
+        <v>0.3370053733476209</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>55315</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>42496</v>
+        <v>41524</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>72030</v>
+        <v>70833</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1311615314902425</v>
+        <v>0.1311615314902426</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1007648381202623</v>
+        <v>0.09846130204977506</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1707954308962907</v>
+        <v>0.1679590670374645</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>75</v>
@@ -7229,19 +7229,19 @@
         <v>49316</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>39306</v>
+        <v>39285</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>60368</v>
+        <v>60718</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1748480444583768</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1393580535315285</v>
+        <v>0.1392842357400281</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.214034823175368</v>
+        <v>0.2152756613573426</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>129</v>
@@ -7250,19 +7250,19 @@
         <v>104630</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>86699</v>
+        <v>87050</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>124682</v>
+        <v>122774</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.148669442943018</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.12319016469698</v>
+        <v>0.1236891072659698</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1771611139283132</v>
+        <v>0.1744494341859227</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>118201</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>96578</v>
+        <v>98898</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>139376</v>
+        <v>140031</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2802753764988012</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.229004133942252</v>
+        <v>0.2345054302168737</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.330485594259296</v>
+        <v>0.3320397981498773</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>112</v>
@@ -7300,19 +7300,19 @@
         <v>81332</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>68101</v>
+        <v>68991</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>95471</v>
+        <v>96190</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2883607009344205</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2414506988589731</v>
+        <v>0.2446061619710892</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3384928284974807</v>
+        <v>0.3410429296523376</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>217</v>
@@ -7321,19 +7321,19 @@
         <v>199532</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>174432</v>
+        <v>175302</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>225862</v>
+        <v>225226</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2835156704629598</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2478511900478455</v>
+        <v>0.2490870330780949</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.320927689119297</v>
+        <v>0.3200248131201969</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>121393</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>103951</v>
+        <v>103004</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>142530</v>
+        <v>140207</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2878442652421178</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2464871721887127</v>
+        <v>0.2442409169101498</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3379653674153688</v>
+        <v>0.3324570396260215</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>115</v>
@@ -7371,19 +7371,19 @@
         <v>90193</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>76743</v>
+        <v>76157</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>104541</v>
+        <v>106394</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3197781443391207</v>
+        <v>0.3197781443391206</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2720909353666944</v>
+        <v>0.2700132912694519</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3706504466542553</v>
+        <v>0.3772209257340834</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>235</v>
@@ -7392,19 +7392,19 @@
         <v>211585</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>187468</v>
+        <v>187292</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>236966</v>
+        <v>235039</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3006421630276833</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2663730974411354</v>
+        <v>0.2661232929545911</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3367050640457854</v>
+        <v>0.3339681836305173</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>126822</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>107039</v>
+        <v>108718</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>147175</v>
+        <v>147747</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3007188267688384</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2538101917546979</v>
+        <v>0.2577914506937753</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3489785836687522</v>
+        <v>0.3503365158106964</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>84</v>
@@ -7442,19 +7442,19 @@
         <v>61208</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48893</v>
+        <v>49356</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>74712</v>
+        <v>75848</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2170131102680822</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.173349020904193</v>
+        <v>0.1749897489476695</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2648900822058324</v>
+        <v>0.268918028373858</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>217</v>
@@ -7463,19 +7463,19 @@
         <v>188030</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>164582</v>
+        <v>163981</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>211599</v>
+        <v>213749</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2671727235663389</v>
+        <v>0.2671727235663388</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2338552104694431</v>
+        <v>0.2330016491666956</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3006622352786921</v>
+        <v>0.3037167241920466</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>71834</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57286</v>
+        <v>55811</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>90134</v>
+        <v>90754</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1906728520368086</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.152058117012065</v>
+        <v>0.1481411859370436</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2392481941815374</v>
+        <v>0.2408924915633292</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>93</v>
@@ -7588,19 +7588,19 @@
         <v>67719</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>54764</v>
+        <v>54613</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>80528</v>
+        <v>80155</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.266918060345568</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.215856473723716</v>
+        <v>0.2152600005730572</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3174052436071517</v>
+        <v>0.3159354338713765</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>155</v>
@@ -7609,19 +7609,19 @@
         <v>139553</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>120609</v>
+        <v>118706</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>160396</v>
+        <v>163445</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2213556520547639</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1913069127844266</v>
+        <v>0.1882884260886377</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2544163517776494</v>
+        <v>0.2592530585940433</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>113045</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>94509</v>
+        <v>95829</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>134482</v>
+        <v>134877</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.300061189337083</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2508587747020584</v>
+        <v>0.2543638075561914</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3569622581962538</v>
+        <v>0.3580110416276248</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>92</v>
@@ -7659,19 +7659,19 @@
         <v>71300</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>58122</v>
+        <v>57655</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>85569</v>
+        <v>84384</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2810353899485309</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.229093607776654</v>
+        <v>0.227253087469219</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3372766557831605</v>
+        <v>0.3326050697873325</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>190</v>
@@ -7680,19 +7680,19 @@
         <v>184345</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>162585</v>
+        <v>160384</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>210061</v>
+        <v>210883</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2924047764192156</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2578888429911911</v>
+        <v>0.2543984539450914</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3331950396343251</v>
+        <v>0.3344987193763356</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>74436</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>57916</v>
+        <v>59465</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>93028</v>
+        <v>93431</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1975802933919239</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1537288570696812</v>
+        <v>0.1578417933460194</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2469294625141245</v>
+        <v>0.2479988628535461</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>54</v>
@@ -7730,19 +7730,19 @@
         <v>47488</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36336</v>
+        <v>36270</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>61021</v>
+        <v>59851</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1871766709427609</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1432209858949782</v>
+        <v>0.1429618273356879</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2405196559366954</v>
+        <v>0.2359062926739591</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>120</v>
@@ -7751,19 +7751,19 @@
         <v>121924</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>102055</v>
+        <v>102025</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>144891</v>
+        <v>143911</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1933936399070609</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1618781050013863</v>
+        <v>0.1618304934356569</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.229822787507738</v>
+        <v>0.2282679925835838</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>117424</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>97103</v>
+        <v>97570</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>138200</v>
+        <v>138066</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3116856652341843</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2577456793995681</v>
+        <v>0.2589861951728309</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3668316157111779</v>
+        <v>0.366475319184865</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>81</v>
@@ -7801,19 +7801,19 @@
         <v>67199</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>55137</v>
+        <v>55222</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>82339</v>
+        <v>82375</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2648698787631402</v>
+        <v>0.2648698787631401</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.217325392151635</v>
+        <v>0.2176621303574306</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3245437370563425</v>
+        <v>0.3246868941740976</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>183</v>
@@ -7822,19 +7822,19 @@
         <v>184624</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>161373</v>
+        <v>160091</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>209229</v>
+        <v>209021</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2928459316189596</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2559658863522984</v>
+        <v>0.253933534850903</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3318752860569794</v>
+        <v>0.3315441491261524</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>82301</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>66265</v>
+        <v>67986</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>98728</v>
+        <v>99849</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1889551664570744</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1521394777509708</v>
+        <v>0.1560896243701851</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2266709965463683</v>
+        <v>0.229245145928637</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>120</v>
@@ -7947,19 +7947,19 @@
         <v>81891</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>68441</v>
+        <v>69390</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>96067</v>
+        <v>96866</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2406160424221256</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2010980339169157</v>
+        <v>0.2038867185993281</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2822701724390954</v>
+        <v>0.2846173529243248</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>213</v>
@@ -7968,19 +7968,19 @@
         <v>164191</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>145295</v>
+        <v>142416</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>187588</v>
+        <v>184833</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2116156478203566</v>
+        <v>0.2116156478203567</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1872618448059799</v>
+        <v>0.1835507158837644</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2417706569398185</v>
+        <v>0.2382198052523003</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>108744</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>91915</v>
+        <v>91242</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>127922</v>
+        <v>129345</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2496663034184944</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2110293400551779</v>
+        <v>0.2094840229967068</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2936990061496905</v>
+        <v>0.2969654798909622</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>152</v>
@@ -8018,19 +8018,19 @@
         <v>110054</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>95097</v>
+        <v>96999</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>127597</v>
+        <v>126656</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3233671739869063</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2794189340160013</v>
+        <v>0.28500843910083</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3749139521257929</v>
+        <v>0.3721475522738342</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>263</v>
@@ -8039,19 +8039,19 @@
         <v>218797</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>195313</v>
+        <v>194765</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>244976</v>
+        <v>243582</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2819943887011172</v>
+        <v>0.2819943887011171</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2517264264683511</v>
+        <v>0.2510202226589443</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3157342163409894</v>
+        <v>0.3139379847115148</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>86294</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>70129</v>
+        <v>71412</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>105372</v>
+        <v>103681</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1981247559426497</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1610103338073844</v>
+        <v>0.1639553401126111</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.241924613916389</v>
+        <v>0.2380422689704816</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>81</v>
@@ -8089,19 +8089,19 @@
         <v>59261</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>48403</v>
+        <v>46849</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>72901</v>
+        <v>73526</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1741239671864043</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.142221587877709</v>
+        <v>0.1376536747568622</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2142038384431763</v>
+        <v>0.2160390282908944</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>174</v>
@@ -8110,19 +8110,19 @@
         <v>145555</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>125415</v>
+        <v>125874</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>167724</v>
+        <v>168842</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1875970709943167</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1616394715357867</v>
+        <v>0.1622306694201252</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.216168618450179</v>
+        <v>0.2176095604857772</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>158217</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>139629</v>
+        <v>139147</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>178463</v>
+        <v>177988</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3632537741817814</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3205762594849977</v>
+        <v>0.3194700048349453</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4097355735539481</v>
+        <v>0.4086456974212758</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>127</v>
@@ -8160,19 +8160,19 @@
         <v>89132</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>75419</v>
+        <v>74868</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>104070</v>
+        <v>103032</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2618928164045636</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2215998228533134</v>
+        <v>0.2199806438984172</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3057846855982419</v>
+        <v>0.3027363761671716</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>301</v>
@@ -8181,19 +8181,19 @@
         <v>247349</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>224766</v>
+        <v>222808</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>272883</v>
+        <v>271410</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3187928924842096</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2896869450417936</v>
+        <v>0.2871636985242016</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3517019083731631</v>
+        <v>0.3498033848487996</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>246857</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>218968</v>
+        <v>218535</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>278301</v>
+        <v>278374</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1596275806774869</v>
+        <v>0.159627580677487</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1415935351000968</v>
+        <v>0.141313677888469</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1799604520834066</v>
+        <v>0.1800081508540311</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>342</v>
@@ -8306,19 +8306,19 @@
         <v>230571</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>207332</v>
+        <v>209416</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>253479</v>
+        <v>253968</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2183611449612207</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1963534178095624</v>
+        <v>0.198326367448042</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2400566680406938</v>
+        <v>0.2405191687263498</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>594</v>
@@ -8327,19 +8327,19 @@
         <v>477427</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>439052</v>
+        <v>441477</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>517955</v>
+        <v>516159</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1834587930850927</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1687123597897669</v>
+        <v>0.1696443325003871</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1990322933439441</v>
+        <v>0.1983420778271858</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>404742</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>369437</v>
+        <v>369289</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>442309</v>
+        <v>444783</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.261722853268416</v>
+        <v>0.2617228532684161</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2388928546283387</v>
+        <v>0.2387969691478799</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2860146616845022</v>
+        <v>0.2876144879617379</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>450</v>
@@ -8377,19 +8377,19 @@
         <v>324378</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>298242</v>
+        <v>300753</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>350595</v>
+        <v>350830</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.307200688387582</v>
+        <v>0.3072006883875821</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2824491877970698</v>
+        <v>0.2848272595363797</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3320300204184482</v>
+        <v>0.3322527991582578</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>831</v>
@@ -8398,19 +8398,19 @@
         <v>729120</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>686470</v>
+        <v>685077</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>778739</v>
+        <v>778980</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.280175538062536</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2637865219315958</v>
+        <v>0.2632513018000999</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.299242376055707</v>
+        <v>0.2993350311975009</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>375851</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>340225</v>
+        <v>339706</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>412468</v>
+        <v>415194</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2430403388878224</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2200030685697314</v>
+        <v>0.219667911492741</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2667185008692001</v>
+        <v>0.2684813736074226</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>328</v>
@@ -8448,19 +8448,19 @@
         <v>253103</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>227109</v>
+        <v>227972</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>277925</v>
+        <v>276663</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2397007535741368</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2150826210875088</v>
+        <v>0.2159004587177422</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2632080584923371</v>
+        <v>0.2620127559261749</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>703</v>
@@ -8469,19 +8469,19 @@
         <v>628954</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>590225</v>
+        <v>585856</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>671688</v>
+        <v>669600</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.241685298240548</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2268028885254641</v>
+        <v>0.2251243849935122</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2581065550498422</v>
+        <v>0.257304282709804</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>519004</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>482514</v>
+        <v>479179</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>557341</v>
+        <v>558199</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3356092271662746</v>
+        <v>0.3356092271662747</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3120132240333217</v>
+        <v>0.3098566459576633</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3603994396211931</v>
+        <v>0.3609538465845013</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>332</v>
@@ -8519,19 +8519,19 @@
         <v>247863</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>224768</v>
+        <v>224249</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>273608</v>
+        <v>273555</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2347374130770603</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2128662304518341</v>
+        <v>0.2123740501941535</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2591200163771606</v>
+        <v>0.259068970742954</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>877</v>
@@ -8540,19 +8540,19 @@
         <v>766867</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>718917</v>
+        <v>721418</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>811423</v>
+        <v>811942</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2946803706118233</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2762550639039515</v>
+        <v>0.2772159533026136</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3118017834981893</v>
+        <v>0.3120012516190254</v>
       </c>
     </row>
     <row r="28">
